--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H2">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I2">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J2">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.76374234705781</v>
+        <v>3.946247666666667</v>
       </c>
       <c r="N2">
-        <v>3.76374234705781</v>
+        <v>11.838743</v>
       </c>
       <c r="O2">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876485</v>
       </c>
       <c r="P2">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876484</v>
       </c>
       <c r="Q2">
-        <v>74.12807369860613</v>
+        <v>104.8666015629151</v>
       </c>
       <c r="R2">
-        <v>74.12807369860613</v>
+        <v>943.799414066236</v>
       </c>
       <c r="S2">
-        <v>0.001669980438010973</v>
+        <v>0.001978411979798767</v>
       </c>
       <c r="T2">
-        <v>0.001669980438010973</v>
+        <v>0.001978411979798767</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H3">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I3">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J3">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.597917168560282</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N3">
-        <v>0.597917168560282</v>
+        <v>2.165195</v>
       </c>
       <c r="O3">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953872</v>
       </c>
       <c r="P3">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953871</v>
       </c>
       <c r="Q3">
-        <v>11.77616421361739</v>
+        <v>19.17911735823778</v>
       </c>
       <c r="R3">
-        <v>11.77616421361739</v>
+        <v>172.61205622414</v>
       </c>
       <c r="S3">
-        <v>0.0002652971120159527</v>
+        <v>0.0003618329856979235</v>
       </c>
       <c r="T3">
-        <v>0.0002652971120159527</v>
+        <v>0.0003618329856979234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H4">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I4">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J4">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.21616940695608</v>
+        <v>2.331168666666667</v>
       </c>
       <c r="N4">
-        <v>2.21616940695608</v>
+        <v>6.993506</v>
       </c>
       <c r="O4">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513755</v>
       </c>
       <c r="P4">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513754</v>
       </c>
       <c r="Q4">
-        <v>43.64814431462283</v>
+        <v>61.94789490994577</v>
       </c>
       <c r="R4">
-        <v>43.64814431462283</v>
+        <v>557.5310541895119</v>
       </c>
       <c r="S4">
-        <v>0.0009833190520674574</v>
+        <v>0.001168708202483537</v>
       </c>
       <c r="T4">
-        <v>0.0009833190520674574</v>
+        <v>0.001168708202483537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H5">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I5">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J5">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.70535853953971</v>
+        <v>6.979377666666667</v>
       </c>
       <c r="N5">
-        <v>3.70535853953971</v>
+        <v>20.938133</v>
       </c>
       <c r="O5">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339932</v>
       </c>
       <c r="P5">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339931</v>
       </c>
       <c r="Q5">
-        <v>72.97818648863542</v>
+        <v>185.4682419225018</v>
       </c>
       <c r="R5">
-        <v>72.97818648863542</v>
+        <v>1669.214177302516</v>
       </c>
       <c r="S5">
-        <v>0.001644075419159711</v>
+        <v>0.003499041508192204</v>
       </c>
       <c r="T5">
-        <v>0.001644075419159711</v>
+        <v>0.003499041508192203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.6953103754707</v>
+        <v>26.57375066666667</v>
       </c>
       <c r="H6">
-        <v>19.6953103754707</v>
+        <v>79.72125199999999</v>
       </c>
       <c r="I6">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="J6">
-        <v>0.01759618874290026</v>
+        <v>0.0234902361349606</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.3744751134764</v>
+        <v>32.87637133333333</v>
       </c>
       <c r="N6">
-        <v>29.3744751134764</v>
+        <v>98.629114</v>
       </c>
       <c r="O6">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625658</v>
       </c>
       <c r="P6">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625657</v>
       </c>
       <c r="Q6">
-        <v>578.5394044764577</v>
+        <v>873.6484946367475</v>
       </c>
       <c r="R6">
-        <v>578.5394044764577</v>
+        <v>7862.836451730727</v>
       </c>
       <c r="S6">
-        <v>0.01303351672164616</v>
+        <v>0.01648224145878817</v>
       </c>
       <c r="T6">
-        <v>0.01303351672164616</v>
+        <v>0.01648224145878817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1096.78030226615</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H7">
-        <v>1096.78030226615</v>
+        <v>3293.988647</v>
       </c>
       <c r="I7">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J7">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.76374234705781</v>
+        <v>3.946247666666667</v>
       </c>
       <c r="N7">
-        <v>3.76374234705781</v>
+        <v>11.838743</v>
       </c>
       <c r="O7">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876485</v>
       </c>
       <c r="P7">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876484</v>
       </c>
       <c r="Q7">
-        <v>4127.998469057974</v>
+        <v>4332.965004083414</v>
       </c>
       <c r="R7">
-        <v>4127.998469057974</v>
+        <v>38996.68503675073</v>
       </c>
       <c r="S7">
-        <v>0.09299684110900737</v>
+        <v>0.08174566300772512</v>
       </c>
       <c r="T7">
-        <v>0.09299684110900737</v>
+        <v>0.08174566300772512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1096.78030226615</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H8">
-        <v>1096.78030226615</v>
+        <v>3293.988647</v>
       </c>
       <c r="I8">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J8">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.597917168560282</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N8">
-        <v>0.597917168560282</v>
+        <v>2.165195</v>
       </c>
       <c r="O8">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953872</v>
       </c>
       <c r="P8">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953871</v>
       </c>
       <c r="Q8">
-        <v>655.7837728636667</v>
+        <v>792.4586387267963</v>
       </c>
       <c r="R8">
-        <v>655.7837728636667</v>
+        <v>7132.127748541166</v>
       </c>
       <c r="S8">
-        <v>0.01477370202145085</v>
+        <v>0.01495051466325533</v>
       </c>
       <c r="T8">
-        <v>0.01477370202145085</v>
+        <v>0.01495051466325533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1096.78030226615</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H9">
-        <v>1096.78030226615</v>
+        <v>3293.988647</v>
       </c>
       <c r="I9">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J9">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.21616940695608</v>
+        <v>2.331168666666667</v>
       </c>
       <c r="N9">
-        <v>2.21616940695608</v>
+        <v>6.993506</v>
       </c>
       <c r="O9">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513755</v>
       </c>
       <c r="P9">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513754</v>
       </c>
       <c r="Q9">
-        <v>2430.650952034284</v>
+        <v>2559.614374080709</v>
       </c>
       <c r="R9">
-        <v>2430.650952034284</v>
+        <v>23036.52936672638</v>
       </c>
       <c r="S9">
-        <v>0.05475846516710886</v>
+        <v>0.04828965243341322</v>
       </c>
       <c r="T9">
-        <v>0.05475846516710886</v>
+        <v>0.04828965243341321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1096.78030226615</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H10">
-        <v>1096.78030226615</v>
+        <v>3293.988647</v>
       </c>
       <c r="I10">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J10">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.70535853953971</v>
+        <v>6.979377666666667</v>
       </c>
       <c r="N10">
-        <v>3.70535853953971</v>
+        <v>20.938133</v>
       </c>
       <c r="O10">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339932</v>
       </c>
       <c r="P10">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339931</v>
       </c>
       <c r="Q10">
-        <v>4063.964259000824</v>
+        <v>7663.330265708451</v>
       </c>
       <c r="R10">
-        <v>4063.964259000824</v>
+        <v>68969.97239137605</v>
       </c>
       <c r="S10">
-        <v>0.0915542583893523</v>
+        <v>0.1445762919449243</v>
       </c>
       <c r="T10">
-        <v>0.0915542583893523</v>
+        <v>0.1445762919449242</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1096.78030226615</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H11">
-        <v>1096.78030226615</v>
+        <v>3293.988647</v>
       </c>
       <c r="I11">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197625</v>
       </c>
       <c r="J11">
-        <v>0.9798857108749239</v>
+        <v>0.9705890111197626</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.3744751134764</v>
+        <v>32.87637133333333</v>
       </c>
       <c r="N11">
-        <v>29.3744751134764</v>
+        <v>98.629114</v>
       </c>
       <c r="O11">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625658</v>
       </c>
       <c r="P11">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625657</v>
       </c>
       <c r="Q11">
-        <v>32217.34569386815</v>
+        <v>36098.13130885208</v>
       </c>
       <c r="R11">
-        <v>32217.34569386815</v>
+        <v>324883.1817796688</v>
       </c>
       <c r="S11">
-        <v>0.7258024441880047</v>
+        <v>0.6810268890704446</v>
       </c>
       <c r="T11">
-        <v>0.7258024441880047</v>
+        <v>0.6810268890704446</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.176676891320029</v>
+        <v>0.1943503333333333</v>
       </c>
       <c r="H12">
-        <v>0.176676891320029</v>
+        <v>0.583051</v>
       </c>
       <c r="I12">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="J12">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.76374234705781</v>
+        <v>3.946247666666667</v>
       </c>
       <c r="N12">
-        <v>3.76374234705781</v>
+        <v>11.838743</v>
       </c>
       <c r="O12">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876485</v>
       </c>
       <c r="P12">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876484</v>
       </c>
       <c r="Q12">
-        <v>0.6649662976077236</v>
+        <v>0.7669545494325555</v>
       </c>
       <c r="R12">
-        <v>0.6649662976077236</v>
+        <v>6.902590944893</v>
       </c>
       <c r="S12">
-        <v>1.498056881197983E-05</v>
+        <v>1.446935483694675E-05</v>
       </c>
       <c r="T12">
-        <v>1.498056881197983E-05</v>
+        <v>1.446935483694675E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.176676891320029</v>
+        <v>0.1943503333333333</v>
       </c>
       <c r="H13">
-        <v>0.176676891320029</v>
+        <v>0.583051</v>
       </c>
       <c r="I13">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="J13">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.597917168560282</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N13">
-        <v>0.597917168560282</v>
+        <v>2.165195</v>
       </c>
       <c r="O13">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953872</v>
       </c>
       <c r="P13">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953871</v>
       </c>
       <c r="Q13">
-        <v>0.1056381466081044</v>
+        <v>0.1402687899938889</v>
       </c>
       <c r="R13">
-        <v>0.1056381466081044</v>
+        <v>1.262419109945</v>
       </c>
       <c r="S13">
-        <v>2.37984921961606E-06</v>
+        <v>2.646309219330373E-06</v>
       </c>
       <c r="T13">
-        <v>2.37984921961606E-06</v>
+        <v>2.646309219330373E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.176676891320029</v>
+        <v>0.1943503333333333</v>
       </c>
       <c r="H14">
-        <v>0.176676891320029</v>
+        <v>0.583051</v>
       </c>
       <c r="I14">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="J14">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.21616940695608</v>
+        <v>2.331168666666667</v>
       </c>
       <c r="N14">
-        <v>2.21616940695608</v>
+        <v>6.993506</v>
       </c>
       <c r="O14">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513755</v>
       </c>
       <c r="P14">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513754</v>
       </c>
       <c r="Q14">
-        <v>0.3915459214595524</v>
+        <v>0.4530634074228889</v>
       </c>
       <c r="R14">
-        <v>0.3915459214595524</v>
+        <v>4.077570666806</v>
       </c>
       <c r="S14">
-        <v>8.820869028365547E-06</v>
+        <v>8.547488518697982E-06</v>
       </c>
       <c r="T14">
-        <v>8.820869028365547E-06</v>
+        <v>8.547488518697984E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.176676891320029</v>
+        <v>0.1943503333333333</v>
       </c>
       <c r="H15">
-        <v>0.176676891320029</v>
+        <v>0.583051</v>
       </c>
       <c r="I15">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="J15">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.70535853953971</v>
+        <v>6.979377666666667</v>
       </c>
       <c r="N15">
-        <v>3.70535853953971</v>
+        <v>20.938133</v>
       </c>
       <c r="O15">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339932</v>
       </c>
       <c r="P15">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339931</v>
       </c>
       <c r="Q15">
-        <v>0.6546512279919988</v>
+        <v>1.356444375975889</v>
       </c>
       <c r="R15">
-        <v>0.6546512279919988</v>
+        <v>12.207999383783</v>
       </c>
       <c r="S15">
-        <v>1.474818769622307E-05</v>
+        <v>2.559066245463597E-05</v>
       </c>
       <c r="T15">
-        <v>1.474818769622307E-05</v>
+        <v>2.559066245463597E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.176676891320029</v>
+        <v>0.1943503333333333</v>
       </c>
       <c r="H16">
-        <v>0.176676891320029</v>
+        <v>0.583051</v>
       </c>
       <c r="I16">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="J16">
-        <v>0.0001578467090342468</v>
+        <v>0.0001717986775812918</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.3744751134764</v>
+        <v>32.87637133333333</v>
       </c>
       <c r="N16">
-        <v>29.3744751134764</v>
+        <v>98.629114</v>
       </c>
       <c r="O16">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625658</v>
       </c>
       <c r="P16">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625657</v>
       </c>
       <c r="Q16">
-        <v>5.189790947206567</v>
+        <v>6.389533727423777</v>
       </c>
       <c r="R16">
-        <v>5.189790947206567</v>
+        <v>57.505803546814</v>
       </c>
       <c r="S16">
-        <v>0.0001169172342780624</v>
+        <v>0.0001205448625516807</v>
       </c>
       <c r="T16">
-        <v>0.0001169172342780624</v>
+        <v>0.0001205448625516807</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.64181802869798</v>
+        <v>0.4090393333333334</v>
       </c>
       <c r="H17">
-        <v>2.64181802869798</v>
+        <v>1.227118</v>
       </c>
       <c r="I17">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613883</v>
       </c>
       <c r="J17">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613884</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.76374234705781</v>
+        <v>3.946247666666667</v>
       </c>
       <c r="N17">
-        <v>3.76374234705781</v>
+        <v>11.838743</v>
       </c>
       <c r="O17">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876485</v>
       </c>
       <c r="P17">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876484</v>
       </c>
       <c r="Q17">
-        <v>9.943122387831373</v>
+        <v>1.614170514741556</v>
       </c>
       <c r="R17">
-        <v>9.943122387831373</v>
+        <v>14.527534632674</v>
       </c>
       <c r="S17">
-        <v>0.0002240017722292382</v>
+        <v>3.045292053148768E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002240017722292382</v>
+        <v>3.045292053148768E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.64181802869798</v>
+        <v>0.4090393333333334</v>
       </c>
       <c r="H18">
-        <v>2.64181802869798</v>
+        <v>1.227118</v>
       </c>
       <c r="I18">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613883</v>
       </c>
       <c r="J18">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613884</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.597917168560282</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N18">
-        <v>0.597917168560282</v>
+        <v>2.165195</v>
       </c>
       <c r="O18">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953872</v>
       </c>
       <c r="P18">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953871</v>
       </c>
       <c r="Q18">
-        <v>1.579588355570602</v>
+        <v>0.295216639778889</v>
       </c>
       <c r="R18">
-        <v>1.579588355570602</v>
+        <v>2.656949758010001</v>
       </c>
       <c r="S18">
-        <v>3.558546070734371E-05</v>
+        <v>5.56955339516826E-06</v>
       </c>
       <c r="T18">
-        <v>3.558546070734371E-05</v>
+        <v>5.56955339516826E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.64181802869798</v>
+        <v>0.4090393333333334</v>
       </c>
       <c r="H19">
-        <v>2.64181802869798</v>
+        <v>1.227118</v>
       </c>
       <c r="I19">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613883</v>
       </c>
       <c r="J19">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613884</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.21616940695608</v>
+        <v>2.331168666666667</v>
       </c>
       <c r="N19">
-        <v>2.21616940695608</v>
+        <v>6.993506</v>
       </c>
       <c r="O19">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513755</v>
       </c>
       <c r="P19">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513754</v>
       </c>
       <c r="Q19">
-        <v>5.854716293945483</v>
+        <v>0.953539677300889</v>
       </c>
       <c r="R19">
-        <v>5.854716293945483</v>
+        <v>8.581857095708001</v>
       </c>
       <c r="S19">
-        <v>0.0001318968805360567</v>
+        <v>1.798946750127799E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001318968805360567</v>
+        <v>1.798946750127799E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.64181802869798</v>
+        <v>0.4090393333333334</v>
       </c>
       <c r="H20">
-        <v>2.64181802869798</v>
+        <v>1.227118</v>
       </c>
       <c r="I20">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613883</v>
       </c>
       <c r="J20">
-        <v>0.002360253673141487</v>
+        <v>0.0003615760021613884</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.70535853953971</v>
+        <v>6.979377666666667</v>
       </c>
       <c r="N20">
-        <v>3.70535853953971</v>
+        <v>20.938133</v>
       </c>
       <c r="O20">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339932</v>
       </c>
       <c r="P20">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339931</v>
       </c>
       <c r="Q20">
-        <v>9.788882992546023</v>
+        <v>2.854839987854889</v>
       </c>
       <c r="R20">
-        <v>9.788882992546023</v>
+        <v>25.693559890694</v>
       </c>
       <c r="S20">
-        <v>0.0002205270188727103</v>
+        <v>5.385937513186322E-05</v>
       </c>
       <c r="T20">
-        <v>0.0002205270188727103</v>
+        <v>5.385937513186322E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4090393333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.227118</v>
+      </c>
+      <c r="I21">
+        <v>0.0003615760021613883</v>
+      </c>
+      <c r="J21">
+        <v>0.0003615760021613884</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>32.87637133333333</v>
+      </c>
+      <c r="N21">
+        <v>98.629114</v>
+      </c>
+      <c r="O21">
+        <v>0.7016635066625658</v>
+      </c>
+      <c r="P21">
+        <v>0.7016635066625657</v>
+      </c>
+      <c r="Q21">
+        <v>13.44772901260578</v>
+      </c>
+      <c r="R21">
+        <v>121.029561113452</v>
+      </c>
+      <c r="S21">
+        <v>0.0002537046856015912</v>
+      </c>
+      <c r="T21">
+        <v>0.0002537046856015912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.094568</v>
+      </c>
+      <c r="H22">
+        <v>18.283704</v>
+      </c>
+      <c r="I22">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J22">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.946247666666667</v>
+      </c>
+      <c r="N22">
+        <v>11.838743</v>
+      </c>
+      <c r="O22">
+        <v>0.08422273698876485</v>
+      </c>
+      <c r="P22">
+        <v>0.08422273698876484</v>
+      </c>
+      <c r="Q22">
+        <v>24.05067474934133</v>
+      </c>
+      <c r="R22">
+        <v>216.456072744072</v>
+      </c>
+      <c r="S22">
+        <v>0.0004537397258725268</v>
+      </c>
+      <c r="T22">
+        <v>0.0004537397258725269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.094568</v>
+      </c>
+      <c r="H23">
+        <v>18.283704</v>
+      </c>
+      <c r="I23">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J23">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7217316666666668</v>
+      </c>
+      <c r="N23">
+        <v>2.165195</v>
+      </c>
+      <c r="O23">
+        <v>0.01540354824953872</v>
+      </c>
+      <c r="P23">
+        <v>0.01540354824953871</v>
+      </c>
+      <c r="Q23">
+        <v>4.398642720253334</v>
+      </c>
+      <c r="R23">
+        <v>39.58778448228001</v>
+      </c>
+      <c r="S23">
+        <v>8.298473797096245E-05</v>
+      </c>
+      <c r="T23">
+        <v>8.298473797096245E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.094568</v>
+      </c>
+      <c r="H24">
+        <v>18.283704</v>
+      </c>
+      <c r="I24">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J24">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.331168666666667</v>
+      </c>
+      <c r="N24">
+        <v>6.993506</v>
+      </c>
+      <c r="O24">
+        <v>0.04975293546513755</v>
+      </c>
+      <c r="P24">
+        <v>0.04975293546513754</v>
+      </c>
+      <c r="Q24">
+        <v>14.20746595846933</v>
+      </c>
+      <c r="R24">
+        <v>127.867193626224</v>
+      </c>
+      <c r="S24">
+        <v>0.0002680378732208201</v>
+      </c>
+      <c r="T24">
+        <v>0.0002680378732208201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.64181802869798</v>
-      </c>
-      <c r="H21">
-        <v>2.64181802869798</v>
-      </c>
-      <c r="I21">
-        <v>0.002360253673141487</v>
-      </c>
-      <c r="J21">
-        <v>0.002360253673141487</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>29.3744751134764</v>
-      </c>
-      <c r="N21">
-        <v>29.3744751134764</v>
-      </c>
-      <c r="O21">
-        <v>0.740701120684725</v>
-      </c>
-      <c r="P21">
-        <v>0.740701120684725</v>
-      </c>
-      <c r="Q21">
-        <v>77.60201793832211</v>
-      </c>
-      <c r="R21">
-        <v>77.60201793832211</v>
-      </c>
-      <c r="S21">
-        <v>0.001748242540796138</v>
-      </c>
-      <c r="T21">
-        <v>0.001748242540796138</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.094568</v>
+      </c>
+      <c r="H25">
+        <v>18.283704</v>
+      </c>
+      <c r="I25">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J25">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.979377666666667</v>
+      </c>
+      <c r="N25">
+        <v>20.938133</v>
+      </c>
+      <c r="O25">
+        <v>0.1489572726339932</v>
+      </c>
+      <c r="P25">
+        <v>0.1489572726339931</v>
+      </c>
+      <c r="Q25">
+        <v>42.53629178718133</v>
+      </c>
+      <c r="R25">
+        <v>382.826626084632</v>
+      </c>
+      <c r="S25">
+        <v>0.0008024891432901709</v>
+      </c>
+      <c r="T25">
+        <v>0.0008024891432901708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.094568</v>
+      </c>
+      <c r="H26">
+        <v>18.283704</v>
+      </c>
+      <c r="I26">
+        <v>0.005387378065534189</v>
+      </c>
+      <c r="J26">
+        <v>0.005387378065534191</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>32.87637133333333</v>
+      </c>
+      <c r="N26">
+        <v>98.629114</v>
+      </c>
+      <c r="O26">
+        <v>0.7016635066625658</v>
+      </c>
+      <c r="P26">
+        <v>0.7016635066625657</v>
+      </c>
+      <c r="Q26">
+        <v>200.3672806842507</v>
+      </c>
+      <c r="R26">
+        <v>1803.305526158256</v>
+      </c>
+      <c r="S26">
+        <v>0.003780126585179709</v>
+      </c>
+      <c r="T26">
+        <v>0.00378012658517971</v>
       </c>
     </row>
   </sheetData>
